--- a/xlsx/A1_intext.xlsx
+++ b/xlsx/A1_intext.xlsx
@@ -29,19 +29,19 @@
     <t>B1</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_A1</t>
+    <t>政策_政策_混合动力车辆_A1</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AA</t>
   </si>
   <si>
-    <t>奧迪</t>
+    <t>奥迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%9E%8B%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>小型跑車</t>
+    <t>小型跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%AAA1</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E5%BB%BA%E8%8F%AF</t>
   </si>
   <si>
-    <t>董建華</t>
+    <t>董建华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E8%B6%99%E6%B4%AA%E5%A8%89</t>
   </si>
   <si>
-    <t>董趙洪娉</t>
+    <t>董赵洪娉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%A2%9D%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>頭條新聞</t>
+    <t>头条新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -95,37 +95,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AC</t>
   </si>
   <si>
-    <t>醬</t>
+    <t>酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E7%BF%92%E7%8F%AD</t>
   </si>
   <si>
-    <t>補習班</t>
+    <t>补习班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A1GP%E6%B1%BD%E8%BB%8A%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
   </si>
   <si>
-    <t>A1GP汽車大獎賽</t>
+    <t>A1GP汽车大奖赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>賽車</t>
+    <t>赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-1%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-1攻擊機</t>
+    <t>A-1攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-1_Pictures</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E6%AD%B7%E9%9A%AA%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國家地理歷險頻道</t>
+    <t>国家地理历险频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A1%E5%85%AC%E8%B7%AF</t>
